--- a/contact.xlsx
+++ b/contact.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varun\Python\Mail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6356DEA-264C-4CF7-AECF-FA2C331B1480}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B29031-2DDE-48A2-BDAF-76C150A78312}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="2990" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,31 +33,31 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Varun Borar</t>
-  </si>
-  <si>
-    <t>varunborar@gmail.com</t>
-  </si>
-  <si>
-    <t>Siddharth Borar</t>
-  </si>
-  <si>
-    <t>rajaborar@gmail.com</t>
-  </si>
-  <si>
-    <t>Vishal Borar</t>
-  </si>
-  <si>
-    <t>vishalborar@gmail.com</t>
-  </si>
-  <si>
-    <t>Shikha Borar</t>
-  </si>
-  <si>
-    <t>shikhaborar@gmail.com</t>
-  </si>
-  <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>John Mark</t>
+  </si>
+  <si>
+    <t>Sandy Rold</t>
+  </si>
+  <si>
+    <t>Inaria Gupta</t>
+  </si>
+  <si>
+    <t>Mahima Jain</t>
+  </si>
+  <si>
+    <t>mm@gmail.com</t>
+  </si>
+  <si>
+    <t>ig@gmail.com</t>
+  </si>
+  <si>
+    <t>kg@gmail.com</t>
+  </si>
+  <si>
+    <t>jm@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,51 +407,51 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2">
-        <v>9868249009</v>
+        <v>1234567890</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>8750408000</v>
+        <v>1234567890</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>9810532450</v>
+        <v>1234567890</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>9868249009</v>
+        <v>1234567890</v>
       </c>
     </row>
   </sheetData>
